--- a/compete/unique_data_P1.xlsx
+++ b/compete/unique_data_P1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1317"/>
+  <dimension ref="A1:E1439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22777,8 +22777,2083 @@
         <v>34</v>
       </c>
     </row>
+    <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1318">
+        <v>28</v>
+      </c>
+      <c r="B1318">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="C1318">
+        <v>14</v>
+      </c>
+      <c r="D1318">
+        <v>15</v>
+      </c>
+      <c r="E1318">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1319">
+        <v>27</v>
+      </c>
+      <c r="B1319">
+        <v>0.93</v>
+      </c>
+      <c r="C1319">
+        <v>14</v>
+      </c>
+      <c r="D1319">
+        <v>63</v>
+      </c>
+      <c r="E1319">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1320">
+        <v>139</v>
+      </c>
+      <c r="B1320">
+        <v>0.93</v>
+      </c>
+      <c r="C1320">
+        <v>14</v>
+      </c>
+      <c r="D1320">
+        <v>111</v>
+      </c>
+      <c r="E1320">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1321">
+        <v>126</v>
+      </c>
+      <c r="B1321">
+        <v>-0.93</v>
+      </c>
+      <c r="C1321">
+        <v>14</v>
+      </c>
+      <c r="D1321">
+        <v>159</v>
+      </c>
+      <c r="E1321">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1322">
+        <v>76</v>
+      </c>
+      <c r="B1322">
+        <v>0.71</v>
+      </c>
+      <c r="C1322">
+        <v>17</v>
+      </c>
+      <c r="D1322">
+        <v>62</v>
+      </c>
+      <c r="E1322">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1323">
+        <v>97</v>
+      </c>
+      <c r="B1323">
+        <v>0.93</v>
+      </c>
+      <c r="C1323">
+        <v>14</v>
+      </c>
+      <c r="D1323">
+        <v>87</v>
+      </c>
+      <c r="E1323">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1324">
+        <v>112</v>
+      </c>
+      <c r="B1324">
+        <v>-0.93</v>
+      </c>
+      <c r="C1324">
+        <v>14</v>
+      </c>
+      <c r="D1324">
+        <v>135</v>
+      </c>
+      <c r="E1324">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1325">
+        <v>-5</v>
+      </c>
+      <c r="B1325">
+        <v>0.72</v>
+      </c>
+      <c r="C1325">
+        <v>14</v>
+      </c>
+      <c r="D1325">
+        <v>183</v>
+      </c>
+      <c r="E1325">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1326">
+        <v>78</v>
+      </c>
+      <c r="B1326">
+        <v>0.77</v>
+      </c>
+      <c r="C1326">
+        <v>13</v>
+      </c>
+      <c r="D1326">
+        <v>190</v>
+      </c>
+      <c r="E1326">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1327">
+        <v>-5</v>
+      </c>
+      <c r="B1327">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C1327">
+        <v>18</v>
+      </c>
+      <c r="D1327">
+        <v>59</v>
+      </c>
+      <c r="E1327">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1328">
+        <v>135</v>
+      </c>
+      <c r="B1328">
+        <v>-1.75</v>
+      </c>
+      <c r="C1328">
+        <v>16</v>
+      </c>
+      <c r="D1328">
+        <v>13</v>
+      </c>
+      <c r="E1328">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1329">
+        <v>93</v>
+      </c>
+      <c r="B1329">
+        <v>0.71</v>
+      </c>
+      <c r="C1329">
+        <v>17</v>
+      </c>
+      <c r="D1329">
+        <v>162</v>
+      </c>
+      <c r="E1329">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1330">
+        <v>90</v>
+      </c>
+      <c r="B1330">
+        <v>-3.67</v>
+      </c>
+      <c r="C1330">
+        <v>18</v>
+      </c>
+      <c r="D1330">
+        <v>192</v>
+      </c>
+      <c r="E1330">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1331">
+        <v>20</v>
+      </c>
+      <c r="B1331">
+        <v>-5.5</v>
+      </c>
+      <c r="C1331">
+        <v>18</v>
+      </c>
+      <c r="D1331">
+        <v>97</v>
+      </c>
+      <c r="E1331">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1332">
+        <v>60</v>
+      </c>
+      <c r="B1332">
+        <v>0.33</v>
+      </c>
+      <c r="C1332">
+        <v>15</v>
+      </c>
+      <c r="D1332">
+        <v>191</v>
+      </c>
+      <c r="E1332">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1333">
+        <v>85</v>
+      </c>
+      <c r="B1333">
+        <v>-0.71</v>
+      </c>
+      <c r="C1333">
+        <v>17</v>
+      </c>
+      <c r="D1333">
+        <v>102</v>
+      </c>
+      <c r="E1333">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1334">
+        <v>85</v>
+      </c>
+      <c r="B1334">
+        <v>5.5</v>
+      </c>
+      <c r="C1334">
+        <v>18</v>
+      </c>
+      <c r="D1334">
+        <v>97</v>
+      </c>
+      <c r="E1334">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1335">
+        <v>85</v>
+      </c>
+      <c r="B1335">
+        <v>5.5</v>
+      </c>
+      <c r="C1335">
+        <v>18</v>
+      </c>
+      <c r="D1335">
+        <v>173</v>
+      </c>
+      <c r="E1335">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1336">
+        <v>55</v>
+      </c>
+      <c r="B1336">
+        <v>2.71</v>
+      </c>
+      <c r="C1336">
+        <v>19</v>
+      </c>
+      <c r="D1336">
+        <v>10</v>
+      </c>
+      <c r="E1336">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1337">
+        <v>81</v>
+      </c>
+      <c r="B1337">
+        <v>0.63</v>
+      </c>
+      <c r="C1337">
+        <v>19</v>
+      </c>
+      <c r="D1337">
+        <v>46</v>
+      </c>
+      <c r="E1337">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1338">
+        <v>114</v>
+      </c>
+      <c r="B1338">
+        <v>-0.63</v>
+      </c>
+      <c r="C1338">
+        <v>19</v>
+      </c>
+      <c r="D1338">
+        <v>82</v>
+      </c>
+      <c r="E1338">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1339">
+        <v>40</v>
+      </c>
+      <c r="B1339">
+        <v>4</v>
+      </c>
+      <c r="C1339">
+        <v>19</v>
+      </c>
+      <c r="D1339">
+        <v>118</v>
+      </c>
+      <c r="E1339">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1340">
+        <v>24</v>
+      </c>
+      <c r="B1340">
+        <v>0.63</v>
+      </c>
+      <c r="C1340">
+        <v>19</v>
+      </c>
+      <c r="D1340">
+        <v>154</v>
+      </c>
+      <c r="E1340">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1341">
+        <v>25</v>
+      </c>
+      <c r="B1341">
+        <v>-2</v>
+      </c>
+      <c r="C1341">
+        <v>19</v>
+      </c>
+      <c r="D1341">
+        <v>190</v>
+      </c>
+      <c r="E1341">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1342">
+        <v>78</v>
+      </c>
+      <c r="B1342">
+        <v>0.77</v>
+      </c>
+      <c r="C1342">
+        <v>13</v>
+      </c>
+      <c r="D1342">
+        <v>190</v>
+      </c>
+      <c r="E1342">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1343">
+        <v>85</v>
+      </c>
+      <c r="B1343">
+        <v>5.5</v>
+      </c>
+      <c r="C1343">
+        <v>18</v>
+      </c>
+      <c r="D1343">
+        <v>97</v>
+      </c>
+      <c r="E1343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1344">
+        <v>15</v>
+      </c>
+      <c r="B1344">
+        <v>0.61</v>
+      </c>
+      <c r="C1344">
+        <v>18</v>
+      </c>
+      <c r="D1344">
+        <v>135</v>
+      </c>
+      <c r="E1344">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1345">
+        <v>18</v>
+      </c>
+      <c r="B1345">
+        <v>-0.61</v>
+      </c>
+      <c r="C1345">
+        <v>18</v>
+      </c>
+      <c r="D1345">
+        <v>173</v>
+      </c>
+      <c r="E1345">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1346">
+        <v>180</v>
+      </c>
+      <c r="B1346">
+        <v>-3</v>
+      </c>
+      <c r="C1346">
+        <v>19</v>
+      </c>
+      <c r="D1346">
+        <v>46</v>
+      </c>
+      <c r="E1346">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1347">
+        <v>117</v>
+      </c>
+      <c r="B1347">
+        <v>0.77</v>
+      </c>
+      <c r="C1347">
+        <v>13</v>
+      </c>
+      <c r="D1347">
+        <v>112</v>
+      </c>
+      <c r="E1347">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1348">
+        <v>28</v>
+      </c>
+      <c r="B1348">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="C1348">
+        <v>14</v>
+      </c>
+      <c r="D1348">
+        <v>15</v>
+      </c>
+      <c r="E1348">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1349">
+        <v>13</v>
+      </c>
+      <c r="B1349">
+        <v>0.93</v>
+      </c>
+      <c r="C1349">
+        <v>14</v>
+      </c>
+      <c r="D1349">
+        <v>63</v>
+      </c>
+      <c r="E1349">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1350">
+        <v>14</v>
+      </c>
+      <c r="B1350">
+        <v>-0.93</v>
+      </c>
+      <c r="C1350">
+        <v>14</v>
+      </c>
+      <c r="D1350">
+        <v>111</v>
+      </c>
+      <c r="E1350">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1351">
+        <v>85</v>
+      </c>
+      <c r="B1351">
+        <v>5.5</v>
+      </c>
+      <c r="C1351">
+        <v>18</v>
+      </c>
+      <c r="D1351">
+        <v>97</v>
+      </c>
+      <c r="E1351">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1352">
+        <v>15</v>
+      </c>
+      <c r="B1352">
+        <v>0.61</v>
+      </c>
+      <c r="C1352">
+        <v>18</v>
+      </c>
+      <c r="D1352">
+        <v>40</v>
+      </c>
+      <c r="E1352">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1353">
+        <v>18</v>
+      </c>
+      <c r="B1353">
+        <v>-0.61</v>
+      </c>
+      <c r="C1353">
+        <v>18</v>
+      </c>
+      <c r="D1353">
+        <v>78</v>
+      </c>
+      <c r="E1353">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1354">
+        <v>15</v>
+      </c>
+      <c r="B1354">
+        <v>0.61</v>
+      </c>
+      <c r="C1354">
+        <v>18</v>
+      </c>
+      <c r="D1354">
+        <v>116</v>
+      </c>
+      <c r="E1354">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1355">
+        <v>18</v>
+      </c>
+      <c r="B1355">
+        <v>-0.61</v>
+      </c>
+      <c r="C1355">
+        <v>18</v>
+      </c>
+      <c r="D1355">
+        <v>154</v>
+      </c>
+      <c r="E1355">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1356">
+        <v>15</v>
+      </c>
+      <c r="B1356">
+        <v>0.61</v>
+      </c>
+      <c r="C1356">
+        <v>18</v>
+      </c>
+      <c r="D1356">
+        <v>192</v>
+      </c>
+      <c r="E1356">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1357">
+        <v>18</v>
+      </c>
+      <c r="B1357">
+        <v>-0.61</v>
+      </c>
+      <c r="C1357">
+        <v>18</v>
+      </c>
+      <c r="D1357">
+        <v>97</v>
+      </c>
+      <c r="E1357">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1358">
+        <v>152</v>
+      </c>
+      <c r="B1358">
+        <v>-1</v>
+      </c>
+      <c r="C1358">
+        <v>19</v>
+      </c>
+      <c r="D1358">
+        <v>10</v>
+      </c>
+      <c r="E1358">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1359">
+        <v>18</v>
+      </c>
+      <c r="B1359">
+        <v>-0.61</v>
+      </c>
+      <c r="C1359">
+        <v>18</v>
+      </c>
+      <c r="D1359">
+        <v>173</v>
+      </c>
+      <c r="E1359">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1360">
+        <v>100</v>
+      </c>
+      <c r="B1360">
+        <v>1</v>
+      </c>
+      <c r="C1360">
+        <v>19</v>
+      </c>
+      <c r="D1360">
+        <v>10</v>
+      </c>
+      <c r="E1360">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1361">
+        <v>100</v>
+      </c>
+      <c r="B1361">
+        <v>0.63</v>
+      </c>
+      <c r="C1361">
+        <v>19</v>
+      </c>
+      <c r="D1361">
+        <v>46</v>
+      </c>
+      <c r="E1361">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1362">
+        <v>107</v>
+      </c>
+      <c r="B1362">
+        <v>0.73</v>
+      </c>
+      <c r="C1362">
+        <v>11</v>
+      </c>
+      <c r="D1362">
+        <v>27</v>
+      </c>
+      <c r="E1362">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1363">
+        <v>107</v>
+      </c>
+      <c r="B1363">
+        <v>0.73</v>
+      </c>
+      <c r="C1363">
+        <v>11</v>
+      </c>
+      <c r="D1363">
+        <v>27</v>
+      </c>
+      <c r="E1363">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1364">
+        <v>18</v>
+      </c>
+      <c r="B1364">
+        <v>-0.61</v>
+      </c>
+      <c r="C1364">
+        <v>18</v>
+      </c>
+      <c r="D1364">
+        <v>78</v>
+      </c>
+      <c r="E1364">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1365">
+        <v>87</v>
+      </c>
+      <c r="B1365">
+        <v>0.61</v>
+      </c>
+      <c r="C1365">
+        <v>18</v>
+      </c>
+      <c r="D1365">
+        <v>116</v>
+      </c>
+      <c r="E1365">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1366">
+        <v>200</v>
+      </c>
+      <c r="B1366">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C1366">
+        <v>18</v>
+      </c>
+      <c r="D1366">
+        <v>154</v>
+      </c>
+      <c r="E1366">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1367">
+        <v>72</v>
+      </c>
+      <c r="B1367">
+        <v>-0.61</v>
+      </c>
+      <c r="C1367">
+        <v>18</v>
+      </c>
+      <c r="D1367">
+        <v>192</v>
+      </c>
+      <c r="E1367">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1368">
+        <v>85</v>
+      </c>
+      <c r="B1368">
+        <v>-0.71</v>
+      </c>
+      <c r="C1368">
+        <v>17</v>
+      </c>
+      <c r="D1368">
+        <v>102</v>
+      </c>
+      <c r="E1368">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1369">
+        <v>13</v>
+      </c>
+      <c r="B1369">
+        <v>0.93</v>
+      </c>
+      <c r="C1369">
+        <v>14</v>
+      </c>
+      <c r="D1369">
+        <v>63</v>
+      </c>
+      <c r="E1369">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1370">
+        <v>125</v>
+      </c>
+      <c r="B1370">
+        <v>0.93</v>
+      </c>
+      <c r="C1370">
+        <v>14</v>
+      </c>
+      <c r="D1370">
+        <v>111</v>
+      </c>
+      <c r="E1370">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1371">
+        <v>154</v>
+      </c>
+      <c r="B1371">
+        <v>-0.93</v>
+      </c>
+      <c r="C1371">
+        <v>14</v>
+      </c>
+      <c r="D1371">
+        <v>159</v>
+      </c>
+      <c r="E1371">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1372">
+        <v>45</v>
+      </c>
+      <c r="B1372">
+        <v>-0.4</v>
+      </c>
+      <c r="C1372">
+        <v>15</v>
+      </c>
+      <c r="D1372">
+        <v>7</v>
+      </c>
+      <c r="E1372">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1373">
+        <v>97</v>
+      </c>
+      <c r="B1373">
+        <v>0.93</v>
+      </c>
+      <c r="C1373">
+        <v>14</v>
+      </c>
+      <c r="D1373">
+        <v>63</v>
+      </c>
+      <c r="E1373">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1374">
+        <v>112</v>
+      </c>
+      <c r="B1374">
+        <v>-0.93</v>
+      </c>
+      <c r="C1374">
+        <v>14</v>
+      </c>
+      <c r="D1374">
+        <v>111</v>
+      </c>
+      <c r="E1374">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1375">
+        <v>-5</v>
+      </c>
+      <c r="B1375">
+        <v>0.72</v>
+      </c>
+      <c r="C1375">
+        <v>14</v>
+      </c>
+      <c r="D1375">
+        <v>159</v>
+      </c>
+      <c r="E1375">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1376">
+        <v>80</v>
+      </c>
+      <c r="B1376">
+        <v>0.76</v>
+      </c>
+      <c r="C1376">
+        <v>17</v>
+      </c>
+      <c r="D1376">
+        <v>2</v>
+      </c>
+      <c r="E1376">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1377">
+        <v>87</v>
+      </c>
+      <c r="B1377">
+        <v>0.92</v>
+      </c>
+      <c r="C1377">
+        <v>12</v>
+      </c>
+      <c r="D1377">
+        <v>180</v>
+      </c>
+      <c r="E1377">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1378">
+        <v>69</v>
+      </c>
+      <c r="B1378">
+        <v>0.61</v>
+      </c>
+      <c r="C1378">
+        <v>18</v>
+      </c>
+      <c r="D1378">
+        <v>173</v>
+      </c>
+      <c r="E1378">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1379">
+        <v>24</v>
+      </c>
+      <c r="B1379">
+        <v>0.63</v>
+      </c>
+      <c r="C1379">
+        <v>19</v>
+      </c>
+      <c r="D1379">
+        <v>154</v>
+      </c>
+      <c r="E1379">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1380">
+        <v>57</v>
+      </c>
+      <c r="B1380">
+        <v>-0.63</v>
+      </c>
+      <c r="C1380">
+        <v>19</v>
+      </c>
+      <c r="D1380">
+        <v>190</v>
+      </c>
+      <c r="E1380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1381">
+        <v>75</v>
+      </c>
+      <c r="B1381">
+        <v>0.75</v>
+      </c>
+      <c r="C1381">
+        <v>20</v>
+      </c>
+      <c r="D1381">
+        <v>25</v>
+      </c>
+      <c r="E1381">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1382">
+        <v>80</v>
+      </c>
+      <c r="B1382">
+        <v>-0.75</v>
+      </c>
+      <c r="C1382">
+        <v>20</v>
+      </c>
+      <c r="D1382">
+        <v>59</v>
+      </c>
+      <c r="E1382">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1383">
+        <v>8</v>
+      </c>
+      <c r="B1383">
+        <v>0.71</v>
+      </c>
+      <c r="C1383">
+        <v>17</v>
+      </c>
+      <c r="D1383">
+        <v>82</v>
+      </c>
+      <c r="E1383">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1384">
+        <v>90</v>
+      </c>
+      <c r="B1384">
+        <v>-3.67</v>
+      </c>
+      <c r="C1384">
+        <v>18</v>
+      </c>
+      <c r="D1384">
+        <v>192</v>
+      </c>
+      <c r="E1384">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1385">
+        <v>45</v>
+      </c>
+      <c r="B1385">
+        <v>-1.71</v>
+      </c>
+      <c r="C1385">
+        <v>19</v>
+      </c>
+      <c r="D1385">
+        <v>190</v>
+      </c>
+      <c r="E1385">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1386">
+        <v>105</v>
+      </c>
+      <c r="B1386">
+        <v>1.36</v>
+      </c>
+      <c r="C1386">
+        <v>19</v>
+      </c>
+      <c r="D1386">
+        <v>10</v>
+      </c>
+      <c r="E1386">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1387">
+        <v>195</v>
+      </c>
+      <c r="B1387">
+        <v>-3.8</v>
+      </c>
+      <c r="C1387">
+        <v>19</v>
+      </c>
+      <c r="D1387">
+        <v>10</v>
+      </c>
+      <c r="E1387">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1388">
+        <v>-5</v>
+      </c>
+      <c r="B1388">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C1388">
+        <v>18</v>
+      </c>
+      <c r="D1388">
+        <v>40</v>
+      </c>
+      <c r="E1388">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1389">
+        <v>90</v>
+      </c>
+      <c r="B1389">
+        <v>1.2</v>
+      </c>
+      <c r="C1389">
+        <v>19</v>
+      </c>
+      <c r="D1389">
+        <v>28</v>
+      </c>
+      <c r="E1389">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1390">
+        <v>115</v>
+      </c>
+      <c r="B1390">
+        <v>-1</v>
+      </c>
+      <c r="C1390">
+        <v>12</v>
+      </c>
+      <c r="D1390">
+        <v>12</v>
+      </c>
+      <c r="E1390">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1391">
+        <v>15</v>
+      </c>
+      <c r="B1391">
+        <v>0.92</v>
+      </c>
+      <c r="C1391">
+        <v>12</v>
+      </c>
+      <c r="D1391">
+        <v>68</v>
+      </c>
+      <c r="E1391">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1392">
+        <v>159</v>
+      </c>
+      <c r="B1392">
+        <v>0.92</v>
+      </c>
+      <c r="C1392">
+        <v>12</v>
+      </c>
+      <c r="D1392">
+        <v>124</v>
+      </c>
+      <c r="E1392">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1393">
+        <v>96</v>
+      </c>
+      <c r="B1393">
+        <v>-0.92</v>
+      </c>
+      <c r="C1393">
+        <v>12</v>
+      </c>
+      <c r="D1393">
+        <v>180</v>
+      </c>
+      <c r="E1393">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1394">
+        <v>140</v>
+      </c>
+      <c r="B1394">
+        <v>11</v>
+      </c>
+      <c r="C1394">
+        <v>18</v>
+      </c>
+      <c r="D1394">
+        <v>173</v>
+      </c>
+      <c r="E1394">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1395">
+        <v>34</v>
+      </c>
+      <c r="B1395">
+        <v>-0.76</v>
+      </c>
+      <c r="C1395">
+        <v>17</v>
+      </c>
+      <c r="D1395">
+        <v>2</v>
+      </c>
+      <c r="E1395">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1396">
+        <v>8</v>
+      </c>
+      <c r="B1396">
+        <v>0.71</v>
+      </c>
+      <c r="C1396">
+        <v>17</v>
+      </c>
+      <c r="D1396">
+        <v>42</v>
+      </c>
+      <c r="E1396">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1397">
+        <v>34</v>
+      </c>
+      <c r="B1397">
+        <v>-0.71</v>
+      </c>
+      <c r="C1397">
+        <v>17</v>
+      </c>
+      <c r="D1397">
+        <v>82</v>
+      </c>
+      <c r="E1397">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1398">
+        <v>93</v>
+      </c>
+      <c r="B1398">
+        <v>0.71</v>
+      </c>
+      <c r="C1398">
+        <v>17</v>
+      </c>
+      <c r="D1398">
+        <v>122</v>
+      </c>
+      <c r="E1398">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1399">
+        <v>119</v>
+      </c>
+      <c r="B1399">
+        <v>-0.71</v>
+      </c>
+      <c r="C1399">
+        <v>17</v>
+      </c>
+      <c r="D1399">
+        <v>162</v>
+      </c>
+      <c r="E1399">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1400">
+        <v>5</v>
+      </c>
+      <c r="B1400">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C1400">
+        <v>18</v>
+      </c>
+      <c r="D1400">
+        <v>2</v>
+      </c>
+      <c r="E1400">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1401">
+        <v>123</v>
+      </c>
+      <c r="B1401">
+        <v>0.61</v>
+      </c>
+      <c r="C1401">
+        <v>18</v>
+      </c>
+      <c r="D1401">
+        <v>40</v>
+      </c>
+      <c r="E1401">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1402">
+        <v>162</v>
+      </c>
+      <c r="B1402">
+        <v>-0.61</v>
+      </c>
+      <c r="C1402">
+        <v>18</v>
+      </c>
+      <c r="D1402">
+        <v>78</v>
+      </c>
+      <c r="E1402">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1403">
+        <v>54</v>
+      </c>
+      <c r="B1403">
+        <v>-0.61</v>
+      </c>
+      <c r="C1403">
+        <v>18</v>
+      </c>
+      <c r="D1403">
+        <v>116</v>
+      </c>
+      <c r="E1403">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1404">
+        <v>90</v>
+      </c>
+      <c r="B1404">
+        <v>-3.67</v>
+      </c>
+      <c r="C1404">
+        <v>18</v>
+      </c>
+      <c r="D1404">
+        <v>154</v>
+      </c>
+      <c r="E1404">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1405">
+        <v>15</v>
+      </c>
+      <c r="B1405">
+        <v>0.61</v>
+      </c>
+      <c r="C1405">
+        <v>18</v>
+      </c>
+      <c r="D1405">
+        <v>192</v>
+      </c>
+      <c r="E1405">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1406">
+        <v>180</v>
+      </c>
+      <c r="B1406">
+        <v>-3</v>
+      </c>
+      <c r="C1406">
+        <v>19</v>
+      </c>
+      <c r="D1406">
+        <v>28</v>
+      </c>
+      <c r="E1406">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1407">
+        <v>38</v>
+      </c>
+      <c r="B1407">
+        <v>-0.63</v>
+      </c>
+      <c r="C1407">
+        <v>19</v>
+      </c>
+      <c r="D1407">
+        <v>64</v>
+      </c>
+      <c r="E1407">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1408">
+        <v>24</v>
+      </c>
+      <c r="B1408">
+        <v>0.63</v>
+      </c>
+      <c r="C1408">
+        <v>19</v>
+      </c>
+      <c r="D1408">
+        <v>100</v>
+      </c>
+      <c r="E1408">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1409">
+        <v>57</v>
+      </c>
+      <c r="B1409">
+        <v>-0.63</v>
+      </c>
+      <c r="C1409">
+        <v>19</v>
+      </c>
+      <c r="D1409">
+        <v>136</v>
+      </c>
+      <c r="E1409">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1410">
+        <v>95</v>
+      </c>
+      <c r="B1410">
+        <v>2.4</v>
+      </c>
+      <c r="C1410">
+        <v>19</v>
+      </c>
+      <c r="D1410">
+        <v>172</v>
+      </c>
+      <c r="E1410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1411">
+        <v>75</v>
+      </c>
+      <c r="B1411">
+        <v>0.2</v>
+      </c>
+      <c r="C1411">
+        <v>20</v>
+      </c>
+      <c r="D1411">
+        <v>8</v>
+      </c>
+      <c r="E1411">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1412">
+        <v>97</v>
+      </c>
+      <c r="B1412">
+        <v>0.93</v>
+      </c>
+      <c r="C1412">
+        <v>14</v>
+      </c>
+      <c r="D1412">
+        <v>135</v>
+      </c>
+      <c r="E1412">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1413">
+        <v>112</v>
+      </c>
+      <c r="B1413">
+        <v>-0.93</v>
+      </c>
+      <c r="C1413">
+        <v>14</v>
+      </c>
+      <c r="D1413">
+        <v>183</v>
+      </c>
+      <c r="E1413">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1414">
+        <v>15</v>
+      </c>
+      <c r="B1414">
+        <v>-0.33</v>
+      </c>
+      <c r="C1414">
+        <v>15</v>
+      </c>
+      <c r="D1414">
+        <v>30</v>
+      </c>
+      <c r="E1414">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1415">
+        <v>78</v>
+      </c>
+      <c r="B1415">
+        <v>0.77</v>
+      </c>
+      <c r="C1415">
+        <v>13</v>
+      </c>
+      <c r="D1415">
+        <v>190</v>
+      </c>
+      <c r="E1415">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1416">
+        <v>85</v>
+      </c>
+      <c r="B1416">
+        <v>5.5</v>
+      </c>
+      <c r="C1416">
+        <v>18</v>
+      </c>
+      <c r="D1416">
+        <v>78</v>
+      </c>
+      <c r="E1416">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1417">
+        <v>50</v>
+      </c>
+      <c r="B1417">
+        <v>11</v>
+      </c>
+      <c r="C1417">
+        <v>18</v>
+      </c>
+      <c r="D1417">
+        <v>116</v>
+      </c>
+      <c r="E1417">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1418">
+        <v>85</v>
+      </c>
+      <c r="B1418">
+        <v>5.5</v>
+      </c>
+      <c r="C1418">
+        <v>18</v>
+      </c>
+      <c r="D1418">
+        <v>154</v>
+      </c>
+      <c r="E1418">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1419">
+        <v>33</v>
+      </c>
+      <c r="B1419">
+        <v>0.61</v>
+      </c>
+      <c r="C1419">
+        <v>18</v>
+      </c>
+      <c r="D1419">
+        <v>192</v>
+      </c>
+      <c r="E1419">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1420">
+        <v>38</v>
+      </c>
+      <c r="B1420">
+        <v>-0.63</v>
+      </c>
+      <c r="C1420">
+        <v>19</v>
+      </c>
+      <c r="D1420">
+        <v>28</v>
+      </c>
+      <c r="E1420">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1421">
+        <v>100</v>
+      </c>
+      <c r="B1421">
+        <v>0.63</v>
+      </c>
+      <c r="C1421">
+        <v>19</v>
+      </c>
+      <c r="D1421">
+        <v>64</v>
+      </c>
+      <c r="E1421">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1422">
+        <v>75</v>
+      </c>
+      <c r="B1422">
+        <v>0.33</v>
+      </c>
+      <c r="C1422">
+        <v>15</v>
+      </c>
+      <c r="D1422">
+        <v>76</v>
+      </c>
+      <c r="E1422">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1423">
+        <v>140</v>
+      </c>
+      <c r="B1423">
+        <v>11</v>
+      </c>
+      <c r="C1423">
+        <v>18</v>
+      </c>
+      <c r="D1423">
+        <v>173</v>
+      </c>
+      <c r="E1423">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1424">
+        <v>105</v>
+      </c>
+      <c r="B1424">
+        <v>1.36</v>
+      </c>
+      <c r="C1424">
+        <v>19</v>
+      </c>
+      <c r="D1424">
+        <v>10</v>
+      </c>
+      <c r="E1424">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1425">
+        <v>100</v>
+      </c>
+      <c r="B1425">
+        <v>1</v>
+      </c>
+      <c r="C1425">
+        <v>19</v>
+      </c>
+      <c r="D1425">
+        <v>10</v>
+      </c>
+      <c r="E1425">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1426">
+        <v>40</v>
+      </c>
+      <c r="B1426">
+        <v>4</v>
+      </c>
+      <c r="C1426">
+        <v>19</v>
+      </c>
+      <c r="D1426">
+        <v>46</v>
+      </c>
+      <c r="E1426">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1427">
+        <v>24</v>
+      </c>
+      <c r="B1427">
+        <v>0.63</v>
+      </c>
+      <c r="C1427">
+        <v>19</v>
+      </c>
+      <c r="D1427">
+        <v>82</v>
+      </c>
+      <c r="E1427">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1428">
+        <v>25</v>
+      </c>
+      <c r="B1428">
+        <v>-2</v>
+      </c>
+      <c r="C1428">
+        <v>19</v>
+      </c>
+      <c r="D1428">
+        <v>118</v>
+      </c>
+      <c r="E1428">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1429">
+        <v>38</v>
+      </c>
+      <c r="B1429">
+        <v>-0.63</v>
+      </c>
+      <c r="C1429">
+        <v>19</v>
+      </c>
+      <c r="D1429">
+        <v>154</v>
+      </c>
+      <c r="E1429">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1430">
+        <v>120</v>
+      </c>
+      <c r="B1430">
+        <v>-12</v>
+      </c>
+      <c r="C1430">
+        <v>19</v>
+      </c>
+      <c r="D1430">
+        <v>190</v>
+      </c>
+      <c r="E1430">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1431">
+        <v>0</v>
+      </c>
+      <c r="B1431">
+        <v>0</v>
+      </c>
+      <c r="C1431">
+        <v>20</v>
+      </c>
+      <c r="D1431">
+        <v>25</v>
+      </c>
+      <c r="E1431">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1432">
+        <v>85</v>
+      </c>
+      <c r="B1432">
+        <v>-0.71</v>
+      </c>
+      <c r="C1432">
+        <v>17</v>
+      </c>
+      <c r="D1432">
+        <v>102</v>
+      </c>
+      <c r="E1432">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1433">
+        <v>105</v>
+      </c>
+      <c r="B1433">
+        <v>1.36</v>
+      </c>
+      <c r="C1433">
+        <v>19</v>
+      </c>
+      <c r="D1433">
+        <v>10</v>
+      </c>
+      <c r="E1433">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1434">
+        <v>125</v>
+      </c>
+      <c r="B1434">
+        <v>6</v>
+      </c>
+      <c r="C1434">
+        <v>17</v>
+      </c>
+      <c r="D1434">
+        <v>62</v>
+      </c>
+      <c r="E1434">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1435">
+        <v>105</v>
+      </c>
+      <c r="B1435">
+        <v>1.36</v>
+      </c>
+      <c r="C1435">
+        <v>19</v>
+      </c>
+      <c r="D1435">
+        <v>10</v>
+      </c>
+      <c r="E1435">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1436">
+        <v>-5</v>
+      </c>
+      <c r="B1436">
+        <v>0.72</v>
+      </c>
+      <c r="C1436">
+        <v>14</v>
+      </c>
+      <c r="D1436">
+        <v>183</v>
+      </c>
+      <c r="E1436">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>85</v>
+      </c>
+      <c r="B1437">
+        <v>-0.71</v>
+      </c>
+      <c r="C1437">
+        <v>17</v>
+      </c>
+      <c r="D1437">
+        <v>102</v>
+      </c>
+      <c r="E1437">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>28</v>
+      </c>
+      <c r="B1438">
+        <v>-0.93</v>
+      </c>
+      <c r="C1438">
+        <v>14</v>
+      </c>
+      <c r="D1438">
+        <v>63</v>
+      </c>
+      <c r="E1438">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>13</v>
+      </c>
+      <c r="B1439">
+        <v>0.93</v>
+      </c>
+      <c r="C1439">
+        <v>14</v>
+      </c>
+      <c r="D1439">
+        <v>111</v>
+      </c>
+      <c r="E1439">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>